--- a/biology/Zoologie/Hvaldimir/Hvaldimir.xlsx
+++ b/biology/Zoologie/Hvaldimir/Hvaldimir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hvaldimir est un béluga mâle découvert par des pêcheurs près de Hammerfest dans le nord de la Norvège en avril 2019. Portant un harnais équipé d'une caméra avec des inscriptions en russe, le cétacé est libéré de celui-ci et reste dans la zone montrant une habitude de la proximité avec les humains. Une hypothèse a été émise qu'il puisse être un béluga formé par la marine russe en tant qu'espion à Mourmansk[1]. Son nom est ainsi Hvaldimir, association du norvégien hval (« baleine ») et du nom du président de la fédération de Russie Vladimir Poutine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hvaldimir est un béluga mâle découvert par des pêcheurs près de Hammerfest dans le nord de la Norvège en avril 2019. Portant un harnais équipé d'une caméra avec des inscriptions en russe, le cétacé est libéré de celui-ci et reste dans la zone montrant une habitude de la proximité avec les humains. Une hypothèse a été émise qu'il puisse être un béluga formé par la marine russe en tant qu'espion à Mourmansk. Son nom est ainsi Hvaldimir, association du norvégien hval (« baleine ») et du nom du président de la fédération de Russie Vladimir Poutine.
 </t>
         </is>
       </c>
